--- a/packages/meditrak-server/src/tests/testData/surveyResponses/missingHeaderRow.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/missingHeaderRow.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/Documents/Git/meditrak-server/src/tests/testData/surveyResponses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C022E0B-E290-604C-9A85-CA8DABDE225B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7538C54E-3E5A-4FD1-86CA-A137FEF0CF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Clinic Data..." sheetId="1" r:id="rId1"/>
+    <sheet name="Basic Clinic Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateCount="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,12 +545,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -650,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -670,7 +670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -706,7 +706,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -714,7 +714,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
